--- a/public/templates/cs-template.xlsx
+++ b/public/templates/cs-template.xlsx
@@ -1,33 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AUNTO\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\frontend\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9CE109-7337-4454-8525-3C251479ADC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA4E4D0-60FD-4519-85EE-786E48E5298A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Approval Sheet" sheetId="15" r:id="rId1"/>
     <sheet name="Network" sheetId="10" r:id="rId2"/>
     <sheet name="Surveillance System" sheetId="12" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
   <si>
     <t>Comparative Study of IT Networking Items</t>
   </si>
@@ -48,49 +57,6 @@
   </si>
   <si>
     <t>Final Offer (BDT)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Tw Cen MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Networking Items</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Tw Cen MT"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Cat6 cables, network rack, switches, and accessories.</t>
-    </r>
-  </si>
-  <si>
-    <t>Job</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Tw Cen MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>Fiber Networking Items</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Tw Cen MT"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Fiber, ODF, SFP, Patch Cord</t>
-    </r>
   </si>
   <si>
     <t>Total Price (BDT)</t>
@@ -117,9 +83,6 @@
     <t>Price (BDT)</t>
   </si>
   <si>
-    <t>0.5 Meter Patch Cord</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -127,96 +90,6 @@
   </si>
   <si>
     <t>Qty</t>
-  </si>
-  <si>
-    <t>Pcs</t>
-  </si>
-  <si>
-    <t>Computer Data Network 42U Server Rack (600X1000m) Fornt Glass and back ventilation door</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cisco Catalyst 1000 Series (24 Ports) with SFP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cisco Catalyst 1000 Series (24 Ports) with SFP and PoE </t>
-  </si>
-  <si>
-    <t>1U Cable Manager</t>
-  </si>
-  <si>
-    <t>Dual Face Plate with Modular</t>
-  </si>
-  <si>
-    <t>Single Face Plate with Modular</t>
-  </si>
-  <si>
-    <t>2 Meter Patch Cord</t>
-  </si>
-  <si>
-    <t>Cat-6 Cable</t>
-  </si>
-  <si>
-    <t>RJ-45 Connector</t>
-  </si>
-  <si>
-    <t>12 Core Armored Fiber Cable</t>
-  </si>
-  <si>
-    <t>ODF-24 Port LC Duplex Adapter (24), Pigtail (48) Loaded</t>
-  </si>
-  <si>
-    <t>ODF-12 Port LC Duplex Adapter (12), Pigtail (24) Loaded</t>
-  </si>
-  <si>
-    <t>ODP Fiber optical termination box (300(H)*250(W)*102(D)mm) with mounting clump</t>
-  </si>
-  <si>
-    <t>1 Meter Duplex Fiber Patch Cord (LC-LC)</t>
-  </si>
-  <si>
-    <t>2 Meter Duplex Fiber Patch Cord (LC-LC)</t>
-  </si>
-  <si>
-    <t>1000 Mbps Media Converter</t>
-  </si>
-  <si>
-    <t>1G Duplex SFP (LC)</t>
-  </si>
-  <si>
-    <t>2 Meter Fiber Patch Cable(SC)</t>
-  </si>
-  <si>
-    <t>Accessories (Tie, Velcro Tape, Masking Tape 1", Marker ,flexiable pipe,scotch tape)</t>
-  </si>
-  <si>
-    <t>ODF,Cable Tray,Cable Ladder ,Fiber  splicing , mounting,testing,patch panel and marking.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Faceplate and modular setup, testing and marking. </t>
-  </si>
-  <si>
-    <t>Setting up and dressing up a 42U &amp; 9U rack</t>
-  </si>
-  <si>
-    <t>Cable Tray With Cover and  mounting Clump</t>
-  </si>
-  <si>
-    <t>12 Port UK Type power distribution unit.</t>
-  </si>
-  <si>
-    <t>6 Port UK Type power distribution unit.</t>
-  </si>
-  <si>
-    <t>Data Networking patch panel 24 port (Loaded)</t>
-  </si>
-  <si>
-    <t>Tray wide 10 inch, Deep 4 inch</t>
-  </si>
-  <si>
-    <t>Cable Ladder with mounting Clump ,ladder wide 10 inch</t>
-  </si>
-  <si>
-    <t>Cable Ladder with mounting Clump 10 inch</t>
   </si>
   <si>
     <t>Richman</t>
@@ -237,46 +110,10 @@
     <t xml:space="preserve">                             Comparative Study of IT Network Items</t>
   </si>
   <si>
-    <t>RFT</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>Pair</t>
-  </si>
-  <si>
-    <t>Meter</t>
-  </si>
-  <si>
-    <t>Computer Data Network 9U Rack  (Distribution )</t>
-  </si>
-  <si>
-    <t>WiFi Router (Deco) 2 pack</t>
-  </si>
-  <si>
-    <t>Lot</t>
-  </si>
-  <si>
-    <t>Node</t>
-  </si>
-  <si>
     <t>Fakir</t>
   </si>
   <si>
     <t>Considering all …........ has to fulfil our requirements and given us the lowest price.</t>
-  </si>
-  <si>
-    <t>UTP PATCH CORD 0.5M, 0.5m Patch Cable</t>
-  </si>
-  <si>
-    <t>FIBER CABLE 12 CORE , 12 core Armored Fiber Cable</t>
-  </si>
-  <si>
-    <t>PATCH CORD , 2 Meter Duplex Fiber Patch Cord (LC-LC)</t>
-  </si>
-  <si>
-    <t>UTP PATCH CORD 2M</t>
   </si>
   <si>
     <t>Fakir Technologies Ltd</t>
@@ -288,73 +125,10 @@
     <t>Total Price</t>
   </si>
   <si>
-    <t>NETWORK CABINET/RACK , 12U Wall Mount Server Rack</t>
-  </si>
-  <si>
     <t>Brand</t>
   </si>
   <si>
-    <t>Network Switch 24 Port,Cisco Catalyst C1000 Series(24 Port) With SFP Port</t>
-  </si>
-  <si>
-    <t>CABLE MANAGER , 1U Cable Manager</t>
-  </si>
-  <si>
-    <t>PATCH PANEL , 24 Port Patch Panel with Modular</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SFP , 1G Duplex SFP (LC-LC) </t>
-  </si>
-  <si>
-    <t>ODF 24 Port-2 Pcs , ODF-12 Port LC Duplex Adapter(12),Pigtail (24)</t>
-  </si>
-  <si>
-    <t>CAT-6 UTP CABLE</t>
-  </si>
-  <si>
-    <t>FACE PLATE,Single Face Plate with Moduler and MK Box</t>
-  </si>
-  <si>
-    <t>Safenet</t>
-  </si>
-  <si>
-    <t>Cisco</t>
-  </si>
-  <si>
-    <t>Dintek</t>
-  </si>
-  <si>
-    <t>Atop</t>
-  </si>
-  <si>
-    <t>Ficer/any</t>
-  </si>
-  <si>
-    <t>Litex/any</t>
-  </si>
-  <si>
-    <t>Any</t>
-  </si>
-  <si>
-    <t>Vivanco</t>
-  </si>
-  <si>
-    <t>Rosenberger</t>
-  </si>
-  <si>
-    <t>Usha Martin</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Product Plus Solutions  Ltd</t>
-  </si>
-  <si>
-    <t>Silverlink</t>
-  </si>
-  <si>
-    <t>Box</t>
   </si>
   <si>
     <t>Product Plus Solution</t>
@@ -371,7 +145,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -1108,11 +882,108 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1127,60 +998,12 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1221,55 +1044,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3426,8 +3200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B31DD942-BCEE-4875-89E2-87713CB6E96F}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView zoomScale="73" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3443,72 +3217,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="112" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="114"/>
+      <c r="A1" s="76" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="78"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="114"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="78"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="115">
+      <c r="A3" s="79">
         <f ca="1">TODAY()</f>
-        <v>45428</v>
-      </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="117"/>
+        <v>45577</v>
+      </c>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="81"/>
     </row>
     <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="66" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66" t="s">
-        <v>73</v>
-      </c>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66" t="s">
-        <v>99</v>
-      </c>
-      <c r="I4" s="66"/>
+      <c r="D4" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="75"/>
     </row>
     <row r="5" spans="1:9" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
+      <c r="A5" s="83"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
       <c r="D5" s="9" t="s">
         <v>5</v>
       </c>
@@ -3521,97 +3295,77 @@
       <c r="G5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="120" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" s="120" t="s">
+      <c r="H5" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="74" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="105">
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="66">
         <v>1</v>
       </c>
-      <c r="B6" s="106" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="107" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="108">
-        <v>343740</v>
-      </c>
-      <c r="E6" s="108">
-        <v>336320</v>
-      </c>
-      <c r="F6" s="108">
-        <v>388420</v>
-      </c>
-      <c r="G6" s="108">
-        <v>381820</v>
-      </c>
-      <c r="H6" s="119">
-        <v>391332</v>
-      </c>
-      <c r="I6" s="119">
-        <v>387018</v>
-      </c>
+      <c r="B6" s="67"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
     </row>
     <row r="7" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="105">
+      <c r="A7" s="66">
         <v>2</v>
       </c>
-      <c r="B7" s="104" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="107"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="105"/>
-      <c r="B8" s="104"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="108"/>
+    <row r="8" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="66"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="30"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="109"/>
-      <c r="C9" s="109"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="111">
+      <c r="A9" s="82" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="71">
         <f>E6</f>
-        <v>336320</v>
-      </c>
-      <c r="F9" s="111"/>
-      <c r="G9" s="111">
+        <v>0</v>
+      </c>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71">
         <f>SUM(G6:G8)</f>
-        <v>381820</v>
+        <v>0</v>
       </c>
       <c r="H9" s="30"/>
-      <c r="I9" s="118">
-        <v>387018</v>
-      </c>
+      <c r="I9" s="72"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -3622,7 +3376,7 @@
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -3633,7 +3387,7 @@
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -3750,8 +3504,8 @@
   </sheetPr>
   <dimension ref="A2:T50"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="72" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView showGridLines="0" topLeftCell="C10" zoomScale="72" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3770,120 +3524,120 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="88" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="87"/>
-      <c r="S2" s="87"/>
-      <c r="T2" s="87"/>
+      <c r="B2" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="86"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="87" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
-      <c r="R3" s="87"/>
-      <c r="S3" s="87"/>
-      <c r="T3" s="87"/>
+      <c r="B3" s="86" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="86"/>
+      <c r="Q3" s="86"/>
+      <c r="R3" s="86"/>
+      <c r="S3" s="86"/>
+      <c r="T3" s="86"/>
     </row>
     <row r="4" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="80">
+      <c r="B4" s="91">
         <f ca="1">TODAY()</f>
-        <v>45428</v>
-      </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
+        <v>45577</v>
+      </c>
+      <c r="C4" s="92"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
     </row>
     <row r="5" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="105" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="88"/>
+      <c r="J5" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="88"/>
+      <c r="L5" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="75"/>
+    </row>
+    <row r="6" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="83"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="85" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="86"/>
-      <c r="J5" s="85" t="s">
-        <v>66</v>
-      </c>
-      <c r="K5" s="86"/>
-      <c r="L5" s="66" t="s">
-        <v>52</v>
-      </c>
-      <c r="M5" s="66"/>
-    </row>
-    <row r="6" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="82"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>17</v>
-      </c>
       <c r="J6" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3891,1154 +3645,537 @@
       <c r="B7" s="3">
         <v>1</v>
       </c>
-      <c r="C7" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="69"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="33">
-        <v>3</v>
-      </c>
-      <c r="H7" s="33">
-        <v>63448</v>
-      </c>
-      <c r="I7" s="33">
-        <v>190344</v>
-      </c>
-      <c r="J7" s="40">
-        <v>56185.57</v>
-      </c>
-      <c r="K7" s="40">
-        <v>168556.7</v>
-      </c>
-      <c r="L7" s="31">
-        <v>112000</v>
-      </c>
-      <c r="M7" s="37">
-        <f t="shared" ref="M7:M27" si="0">G7*L7</f>
-        <v>336000</v>
-      </c>
+      <c r="C7" s="101"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="37"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3">
         <v>2</v>
       </c>
-      <c r="C8" s="72" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="4">
-        <v>8</v>
-      </c>
-      <c r="H8" s="4">
-        <v>11443.3</v>
-      </c>
-      <c r="I8" s="4">
-        <f t="shared" ref="I8:I27" si="1">G8*H8</f>
-        <v>91546.4</v>
-      </c>
-      <c r="J8" s="41">
-        <v>12886.6</v>
-      </c>
-      <c r="K8" s="41">
-        <v>103092.78</v>
-      </c>
-      <c r="L8" s="31">
-        <v>15200</v>
-      </c>
-      <c r="M8" s="32">
-        <f t="shared" si="0"/>
-        <v>121600</v>
-      </c>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="32"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>3</v>
       </c>
-      <c r="C9" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="4">
-        <v>6</v>
-      </c>
-      <c r="H9" s="4">
-        <v>55156.5</v>
-      </c>
-      <c r="I9" s="4">
-        <f t="shared" si="1"/>
-        <v>330939</v>
-      </c>
-      <c r="J9" s="41">
-        <v>57731.96</v>
-      </c>
-      <c r="K9" s="41">
-        <v>346391.75</v>
-      </c>
-      <c r="L9" s="31">
-        <v>53500</v>
-      </c>
-      <c r="M9" s="32">
-        <f t="shared" si="0"/>
-        <v>321000</v>
-      </c>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="32"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>4</v>
       </c>
-      <c r="C10" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="4">
-        <v>6</v>
-      </c>
-      <c r="H10" s="4">
-        <v>78949.5</v>
-      </c>
-      <c r="I10" s="4">
-        <f t="shared" si="1"/>
-        <v>473697</v>
-      </c>
-      <c r="J10" s="41">
-        <v>84020.62</v>
-      </c>
-      <c r="K10" s="41">
-        <v>504123.71</v>
-      </c>
-      <c r="L10" s="31">
-        <v>80000</v>
-      </c>
-      <c r="M10" s="32">
-        <f t="shared" si="0"/>
-        <v>480000</v>
-      </c>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="32"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>5</v>
       </c>
-      <c r="C11" s="71" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="4">
-        <v>12</v>
-      </c>
-      <c r="H11" s="4">
-        <v>13596</v>
-      </c>
-      <c r="I11" s="4">
-        <f t="shared" si="1"/>
-        <v>163152</v>
-      </c>
-      <c r="J11" s="41">
-        <v>13917.53</v>
-      </c>
-      <c r="K11" s="41">
-        <v>167010.31</v>
-      </c>
-      <c r="L11" s="31">
-        <v>14000</v>
-      </c>
-      <c r="M11" s="32">
-        <f t="shared" si="0"/>
-        <v>168000</v>
-      </c>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="32"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>6</v>
       </c>
-      <c r="C12" s="72" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="4">
-        <v>8</v>
-      </c>
-      <c r="H12" s="4">
-        <v>4532</v>
-      </c>
-      <c r="I12" s="4">
-        <f t="shared" si="1"/>
-        <v>36256</v>
-      </c>
-      <c r="J12" s="41">
-        <v>8762.89</v>
-      </c>
-      <c r="K12" s="41">
-        <v>70103.09</v>
-      </c>
-      <c r="L12" s="31">
-        <v>5500</v>
-      </c>
-      <c r="M12" s="32">
-        <f t="shared" si="0"/>
-        <v>44000</v>
-      </c>
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="32"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>7</v>
       </c>
-      <c r="C13" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="4">
-        <v>6</v>
-      </c>
-      <c r="H13" s="4">
-        <v>2266</v>
-      </c>
-      <c r="I13" s="4">
-        <f t="shared" si="1"/>
-        <v>13596</v>
-      </c>
-      <c r="J13" s="41">
-        <v>3608.25</v>
-      </c>
-      <c r="K13" s="41">
-        <v>21649.48</v>
-      </c>
-      <c r="L13" s="31">
-        <v>4000</v>
-      </c>
-      <c r="M13" s="32">
-        <f t="shared" si="0"/>
-        <v>24000</v>
-      </c>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="32"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>8</v>
       </c>
-      <c r="C14" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="4">
-        <v>14</v>
-      </c>
-      <c r="H14" s="4">
-        <v>4532</v>
-      </c>
-      <c r="I14" s="4">
-        <f t="shared" si="1"/>
-        <v>63448</v>
-      </c>
-      <c r="J14" s="41">
-        <v>1391.75</v>
-      </c>
-      <c r="K14" s="41">
-        <v>19484.54</v>
-      </c>
-      <c r="L14" s="31">
-        <v>1200</v>
-      </c>
-      <c r="M14" s="32">
-        <f t="shared" si="0"/>
-        <v>16800</v>
-      </c>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="32"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>9</v>
       </c>
-      <c r="C15" s="76" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="77"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="4">
-        <v>14</v>
-      </c>
-      <c r="H15" s="4">
-        <v>12875</v>
-      </c>
-      <c r="I15" s="4">
-        <f t="shared" si="1"/>
-        <v>180250</v>
-      </c>
-      <c r="J15" s="41">
-        <v>9587.6299999999992</v>
-      </c>
-      <c r="K15" s="41">
-        <v>134226.79999999999</v>
-      </c>
-      <c r="L15" s="31">
-        <v>10000</v>
-      </c>
-      <c r="M15" s="32">
-        <f t="shared" si="0"/>
-        <v>140000</v>
-      </c>
+      <c r="C15" s="97"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="32"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B16" s="21">
         <v>10</v>
       </c>
-      <c r="C16" s="27" t="s">
-        <v>45</v>
-      </c>
+      <c r="C16" s="27"/>
       <c r="D16" s="28"/>
-      <c r="E16" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="G16" s="4">
-        <v>100</v>
-      </c>
-      <c r="H16" s="4">
-        <v>593.28</v>
-      </c>
-      <c r="I16" s="4">
-        <f t="shared" si="1"/>
-        <v>59328</v>
-      </c>
-      <c r="J16" s="4">
-        <v>876.29</v>
-      </c>
-      <c r="K16" s="41">
-        <v>87628.87</v>
-      </c>
-      <c r="L16" s="31">
-        <v>690</v>
-      </c>
-      <c r="M16" s="32">
-        <f t="shared" si="0"/>
-        <v>69000</v>
-      </c>
+      <c r="E16" s="29"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="32"/>
     </row>
     <row r="17" spans="2:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="21">
         <v>11</v>
       </c>
-      <c r="C17" s="79" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="G17" s="4">
-        <v>54</v>
-      </c>
-      <c r="H17" s="4">
-        <v>450.63</v>
-      </c>
-      <c r="I17" s="4">
-        <f t="shared" si="1"/>
-        <v>24334.02</v>
-      </c>
-      <c r="J17" s="41">
-        <v>4432.99</v>
-      </c>
-      <c r="K17" s="41">
-        <v>26597.94</v>
-      </c>
-      <c r="L17" s="31">
-        <v>495</v>
-      </c>
-      <c r="M17" s="32">
-        <f t="shared" si="0"/>
-        <v>26730</v>
-      </c>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="32"/>
     </row>
     <row r="18" spans="2:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="21">
         <v>12</v>
       </c>
-      <c r="C18" s="76" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="77"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="G18" s="22">
-        <v>30</v>
-      </c>
-      <c r="H18" s="22">
-        <v>450.63</v>
-      </c>
-      <c r="I18" s="22">
-        <f t="shared" si="1"/>
-        <v>13518.9</v>
-      </c>
-      <c r="J18" s="42">
-        <v>14948.45</v>
-      </c>
-      <c r="K18" s="42">
-        <v>14948.45</v>
-      </c>
-      <c r="L18" s="31">
-        <v>495</v>
-      </c>
-      <c r="M18" s="32">
-        <f t="shared" si="0"/>
-        <v>14850</v>
-      </c>
+      <c r="C18" s="97"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="32"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <v>13</v>
       </c>
-      <c r="C19" s="72" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="25">
-        <v>60</v>
-      </c>
-      <c r="H19" s="4">
-        <v>1081.5</v>
-      </c>
-      <c r="I19" s="4">
-        <f t="shared" si="1"/>
-        <v>64890</v>
-      </c>
-      <c r="J19" s="4">
-        <v>804.12</v>
-      </c>
-      <c r="K19" s="41">
-        <v>48247.42</v>
-      </c>
-      <c r="L19" s="31">
-        <v>790</v>
-      </c>
-      <c r="M19" s="32">
-        <f t="shared" si="0"/>
-        <v>47400</v>
-      </c>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="32"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <v>14</v>
       </c>
-      <c r="C20" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="25">
-        <v>70</v>
-      </c>
-      <c r="H20" s="4">
-        <v>638.6</v>
-      </c>
-      <c r="I20" s="4">
-        <f t="shared" si="1"/>
-        <v>44702</v>
-      </c>
-      <c r="J20" s="4">
-        <v>505.15</v>
-      </c>
-      <c r="K20" s="41">
-        <v>35360.82</v>
-      </c>
-      <c r="L20" s="31">
-        <v>455</v>
-      </c>
-      <c r="M20" s="32">
-        <f t="shared" si="0"/>
-        <v>31850</v>
-      </c>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="32"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <v>15</v>
       </c>
-      <c r="C21" s="72" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="25">
-        <v>300</v>
-      </c>
-      <c r="H21" s="4">
-        <v>504.7</v>
-      </c>
-      <c r="I21" s="4">
-        <f t="shared" si="1"/>
-        <v>151410</v>
-      </c>
-      <c r="J21" s="4">
-        <v>278.35000000000002</v>
-      </c>
-      <c r="K21" s="41">
-        <v>83505.149999999994</v>
-      </c>
-      <c r="L21" s="31">
-        <v>285</v>
-      </c>
-      <c r="M21" s="32">
-        <f t="shared" si="0"/>
-        <v>85500</v>
-      </c>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="32"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <v>16</v>
       </c>
-      <c r="C22" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="25">
-        <v>150</v>
-      </c>
-      <c r="H22" s="4">
-        <v>566.5</v>
-      </c>
-      <c r="I22" s="4">
-        <f t="shared" si="1"/>
-        <v>84975</v>
-      </c>
-      <c r="J22" s="4">
-        <v>360.82</v>
-      </c>
-      <c r="K22" s="41">
-        <v>54123.71</v>
-      </c>
-      <c r="L22" s="31">
-        <v>460</v>
-      </c>
-      <c r="M22" s="32">
-        <f t="shared" si="0"/>
-        <v>69000</v>
-      </c>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="32"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <v>17</v>
       </c>
-      <c r="C23" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="G23" s="25">
-        <v>20</v>
-      </c>
-      <c r="H23" s="4">
-        <v>17973.5</v>
-      </c>
-      <c r="I23" s="4">
-        <f t="shared" si="1"/>
-        <v>359470</v>
-      </c>
-      <c r="J23" s="41">
-        <v>17010.310000000001</v>
-      </c>
-      <c r="K23" s="41">
-        <v>340206.19</v>
-      </c>
-      <c r="L23" s="31">
-        <v>18000</v>
-      </c>
-      <c r="M23" s="32">
-        <f t="shared" si="0"/>
-        <v>360000</v>
-      </c>
+      <c r="C23" s="85"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="32"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <v>18</v>
       </c>
-      <c r="C24" s="72" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="25">
-        <v>100</v>
-      </c>
-      <c r="H24" s="4">
-        <v>29.46</v>
-      </c>
-      <c r="I24" s="4">
-        <f t="shared" si="1"/>
-        <v>2946</v>
-      </c>
-      <c r="J24" s="4">
-        <v>36.08</v>
-      </c>
-      <c r="K24" s="41">
-        <v>3608.25</v>
-      </c>
-      <c r="L24" s="31">
-        <v>35</v>
-      </c>
-      <c r="M24" s="32">
-        <f t="shared" si="0"/>
-        <v>3500</v>
-      </c>
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="32"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <v>19</v>
       </c>
-      <c r="C25" s="72" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="G25" s="25">
-        <v>2500</v>
-      </c>
-      <c r="H25" s="4">
-        <v>68.16</v>
-      </c>
-      <c r="I25" s="4">
-        <f t="shared" si="1"/>
-        <v>170400</v>
-      </c>
-      <c r="J25" s="4">
-        <v>52.58</v>
-      </c>
-      <c r="K25" s="41">
-        <v>131443.29999999999</v>
-      </c>
-      <c r="L25" s="31">
-        <v>65</v>
-      </c>
-      <c r="M25" s="32">
-        <f t="shared" si="0"/>
-        <v>162500</v>
-      </c>
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="32"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <v>20</v>
       </c>
-      <c r="C26" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="25">
-        <v>5</v>
-      </c>
-      <c r="H26" s="4">
-        <v>8138.29</v>
-      </c>
-      <c r="I26" s="4">
-        <f t="shared" si="1"/>
-        <v>40691.449999999997</v>
-      </c>
-      <c r="J26" s="41">
-        <v>9587.6299999999992</v>
-      </c>
-      <c r="K26" s="41">
-        <v>47938.14</v>
-      </c>
-      <c r="L26" s="31">
-        <v>12900</v>
-      </c>
-      <c r="M26" s="32">
-        <f t="shared" si="0"/>
-        <v>64500</v>
-      </c>
+      <c r="C26" s="85"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="32"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <v>21</v>
       </c>
-      <c r="C27" s="72" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="25">
-        <v>8</v>
-      </c>
-      <c r="H27" s="4">
-        <v>6510.63</v>
-      </c>
-      <c r="I27" s="4">
-        <f t="shared" si="1"/>
-        <v>52085.04</v>
-      </c>
-      <c r="J27" s="41">
-        <v>5051.55</v>
-      </c>
-      <c r="K27" s="41">
-        <v>40412.370000000003</v>
-      </c>
-      <c r="L27" s="31">
-        <v>11000</v>
-      </c>
-      <c r="M27" s="44">
-        <f t="shared" si="0"/>
-        <v>88000</v>
-      </c>
+      <c r="C27" s="85"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="44"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <v>22</v>
       </c>
-      <c r="C28" s="72" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" s="25">
-        <v>1</v>
-      </c>
-      <c r="H28" s="4">
-        <v>2258.79</v>
-      </c>
-      <c r="I28" s="4">
-        <v>2258.79</v>
-      </c>
-      <c r="J28" s="41">
-        <v>13917.53</v>
-      </c>
-      <c r="K28" s="41">
-        <v>13917.53</v>
-      </c>
-      <c r="L28" s="31">
-        <v>2500</v>
-      </c>
-      <c r="M28" s="32">
-        <v>2500</v>
-      </c>
+      <c r="C28" s="85"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="32"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <v>23</v>
       </c>
-      <c r="C29" s="72" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="25">
-        <v>60</v>
-      </c>
-      <c r="H29" s="4">
-        <v>465.05</v>
-      </c>
-      <c r="I29" s="4">
-        <f>G29*H29</f>
-        <v>27903</v>
-      </c>
-      <c r="J29" s="4">
-        <v>134.02000000000001</v>
-      </c>
-      <c r="K29" s="41">
-        <v>8041.24</v>
-      </c>
-      <c r="L29" s="31">
-        <v>365</v>
-      </c>
-      <c r="M29" s="32">
-        <f t="shared" ref="M29:M37" si="2">G29*L29</f>
-        <v>21900</v>
-      </c>
+      <c r="C29" s="85"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="32"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <v>24</v>
       </c>
-      <c r="C30" s="72" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="25">
-        <v>60</v>
-      </c>
-      <c r="H30" s="4">
-        <v>488.3</v>
-      </c>
-      <c r="I30" s="4">
-        <f>G30*H30</f>
-        <v>29298</v>
-      </c>
-      <c r="J30" s="4">
-        <v>154.63999999999999</v>
-      </c>
-      <c r="K30" s="41">
-        <v>9278.35</v>
-      </c>
-      <c r="L30" s="31">
-        <v>410</v>
-      </c>
-      <c r="M30" s="32">
-        <f t="shared" si="2"/>
-        <v>24600</v>
-      </c>
+      <c r="C30" s="85"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="32"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
         <v>25</v>
       </c>
-      <c r="C31" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="G31" s="25">
-        <v>10</v>
-      </c>
-      <c r="H31" s="4">
-        <v>2768.13</v>
-      </c>
-      <c r="I31" s="4">
-        <f>G31*H31</f>
-        <v>27681.300000000003</v>
-      </c>
-      <c r="J31" s="41">
-        <v>2783.51</v>
-      </c>
-      <c r="K31" s="41">
-        <v>27835.05</v>
-      </c>
-      <c r="L31" s="31">
-        <v>2800</v>
-      </c>
-      <c r="M31" s="32">
-        <f t="shared" si="2"/>
-        <v>28000</v>
-      </c>
+      <c r="C31" s="85"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="32"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="3">
         <v>26</v>
       </c>
-      <c r="C32" s="72" t="s">
-        <v>39</v>
-      </c>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="G32" s="25">
-        <v>30</v>
-      </c>
-      <c r="H32" s="4">
-        <v>2768.13</v>
-      </c>
-      <c r="I32" s="4">
-        <f>G32*H32</f>
-        <v>83043.900000000009</v>
-      </c>
-      <c r="J32" s="41">
-        <v>2783.51</v>
-      </c>
-      <c r="K32" s="41">
-        <v>83505.149999999994</v>
-      </c>
-      <c r="L32" s="31">
-        <v>3000</v>
-      </c>
-      <c r="M32" s="32">
-        <f t="shared" si="2"/>
-        <v>90000</v>
-      </c>
+      <c r="C32" s="85"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="32"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="3">
         <v>27</v>
       </c>
-      <c r="C33" s="72" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="G33" s="25">
-        <v>20</v>
-      </c>
-      <c r="H33" s="4">
-        <v>523.17999999999995</v>
-      </c>
-      <c r="I33" s="4">
-        <f>G33*H33</f>
-        <v>10463.599999999999</v>
-      </c>
-      <c r="J33" s="4">
-        <v>154.63999999999999</v>
-      </c>
-      <c r="K33" s="41">
-        <v>3092.78</v>
-      </c>
-      <c r="L33" s="31">
-        <v>500</v>
-      </c>
-      <c r="M33" s="44">
-        <f t="shared" si="2"/>
-        <v>10000</v>
-      </c>
+      <c r="C33" s="85"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="44"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
         <v>28</v>
       </c>
-      <c r="C34" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="D34" s="72"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="G34" s="25">
-        <v>1</v>
-      </c>
-      <c r="H34" s="4">
-        <v>6643.5</v>
-      </c>
-      <c r="I34" s="4">
-        <v>6643.5</v>
-      </c>
-      <c r="J34" s="41">
-        <v>13608.25</v>
-      </c>
-      <c r="K34" s="41">
-        <v>13608.25</v>
-      </c>
-      <c r="L34" s="31">
-        <v>5000</v>
-      </c>
-      <c r="M34" s="32">
-        <f t="shared" si="2"/>
-        <v>5000</v>
-      </c>
+      <c r="C34" s="85"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="32"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="3">
         <v>29</v>
       </c>
-      <c r="C35" s="72" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="G35" s="25">
-        <v>1</v>
-      </c>
-      <c r="H35" s="4">
-        <v>16480</v>
-      </c>
-      <c r="I35" s="4">
-        <v>16480</v>
-      </c>
-      <c r="J35" s="41">
-        <v>77319.59</v>
-      </c>
-      <c r="K35" s="41">
-        <v>77319.59</v>
-      </c>
-      <c r="L35" s="31">
-        <v>60000</v>
-      </c>
-      <c r="M35" s="32">
-        <f t="shared" si="2"/>
-        <v>60000</v>
-      </c>
+      <c r="C35" s="85"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="32"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="3">
         <v>30</v>
       </c>
-      <c r="C36" s="72" t="s">
-        <v>43</v>
-      </c>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="G36" s="25">
-        <v>70</v>
-      </c>
-      <c r="H36" s="4">
-        <v>669.5</v>
-      </c>
-      <c r="I36" s="4">
-        <f>G36*H36</f>
-        <v>46865</v>
-      </c>
-      <c r="J36" s="41">
-        <v>1855.67</v>
-      </c>
-      <c r="K36" s="41">
-        <v>129896.91</v>
-      </c>
-      <c r="L36" s="31">
-        <v>700</v>
-      </c>
-      <c r="M36" s="32">
-        <f>G36*L36</f>
-        <v>49000</v>
-      </c>
+      <c r="C36" s="85"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="85"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="32"/>
     </row>
     <row r="37" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="3">
         <v>31</v>
       </c>
-      <c r="C37" s="72" t="s">
-        <v>44</v>
-      </c>
-      <c r="D37" s="72"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="G37" s="25">
-        <v>7</v>
-      </c>
-      <c r="H37" s="4">
-        <v>3605</v>
-      </c>
-      <c r="I37" s="4">
-        <f>G37*H37</f>
-        <v>25235</v>
-      </c>
-      <c r="J37" s="41">
-        <v>12371.13</v>
-      </c>
-      <c r="K37" s="41">
-        <v>86597.94</v>
-      </c>
-      <c r="L37" s="31">
-        <v>1500</v>
-      </c>
-      <c r="M37" s="32">
-        <f t="shared" si="2"/>
-        <v>10500</v>
-      </c>
+      <c r="C37" s="85"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="32"/>
     </row>
     <row r="38" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="74" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="75"/>
-      <c r="D38" s="75"/>
-      <c r="E38" s="75"/>
+      <c r="B38" s="95" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="96"/>
+      <c r="D38" s="96"/>
+      <c r="E38" s="96"/>
       <c r="F38" s="34"/>
       <c r="G38" s="25"/>
       <c r="H38" s="25"/>
       <c r="I38" s="38">
         <f>SUM(I7,I8,I9,I10,I11,I12,I13,I14,I15,I16,I17,I18,I19,I20,I21,I22,I23,I24,I25,I26,I27,I28,I29,I30,I31,I32,I33,I34,I35,I36,I37)</f>
-        <v>2887850.9</v>
+        <v>0</v>
       </c>
       <c r="J38" s="38"/>
       <c r="K38" s="43">
         <f>SUM(K7,K8,K9,K10,K11,K12,K13,K14,K15,K16,K17,K18,K19,K20,K21,K22,K23,K24,K25,K26,K27,K28,K29,K30,K31,K32,K33,K34,K35,K36,K37)</f>
-        <v>2901752.5599999996</v>
+        <v>0</v>
       </c>
       <c r="L38" s="26"/>
       <c r="M38" s="39">
         <f>SUM(M7,M8,M9,M10,M11,M12,M13,M14,M15,M16,M17,M18,M19,M20,M21,M22,M23,M24,M25,M26,M27,M28,M29,M30,M31,M32,M33,M34,M35,M36,M37)</f>
-        <v>2975730</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
@@ -5115,6 +4252,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:E6"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="H5:I5"/>
     <mergeCell ref="C37:E37"/>
     <mergeCell ref="N2:T2"/>
     <mergeCell ref="N3:T3"/>
@@ -5131,34 +4296,6 @@
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:E6"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F5:F6"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.25" right="1.01848206474191E-2" top="0.75" bottom="0.153933727034121" header="0" footer="0"/>
@@ -5171,8 +4308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB258C41-E636-40F4-8777-BF778132CA69}">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5195,21 +4332,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="96" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
+      <c r="B1" s="113" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
       <c r="O1"/>
       <c r="P1"/>
       <c r="Q1"/>
@@ -5217,21 +4354,21 @@
       <c r="S1"/>
     </row>
     <row r="2" spans="1:19" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="96" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
+      <c r="B2" s="113" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
@@ -5239,32 +4376,32 @@
       <c r="S2"/>
     </row>
     <row r="3" spans="1:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="92">
+      <c r="B3" s="109">
         <f ca="1">TODAY()</f>
-        <v>45428</v>
-      </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="90" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="94" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="101" t="s">
-        <v>95</v>
-      </c>
-      <c r="G3" s="102"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="101" t="s">
-        <v>73</v>
-      </c>
-      <c r="J3" s="102"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="98" t="s">
-        <v>72</v>
-      </c>
-      <c r="M3" s="99"/>
-      <c r="N3" s="100"/>
+        <v>45577</v>
+      </c>
+      <c r="C3" s="110"/>
+      <c r="D3" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="111" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="118" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="119"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="118" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="119"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="115" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="116"/>
+      <c r="N3" s="117"/>
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
@@ -5279,34 +4416,34 @@
       <c r="C4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="91"/>
-      <c r="E4" s="95"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="112"/>
       <c r="F4" s="52" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H4" s="53" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="I4" s="52" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K4" s="53" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="L4" s="52" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N4" s="53" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
@@ -5316,45 +4453,19 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
-      <c r="B5" s="13">
-        <v>1</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="13">
-        <v>1</v>
-      </c>
-      <c r="E5" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="G5" s="46">
-        <v>12000</v>
-      </c>
-      <c r="H5" s="55">
-        <v>12000</v>
-      </c>
-      <c r="I5" s="61" t="s">
-        <v>84</v>
-      </c>
-      <c r="J5" s="46">
-        <v>16500</v>
-      </c>
-      <c r="K5" s="65">
-        <v>16500</v>
-      </c>
-      <c r="L5" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="M5" s="46">
-        <v>15464</v>
-      </c>
-      <c r="N5" s="55">
-        <v>15464</v>
-      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="55"/>
       <c r="O5" s="16"/>
       <c r="P5" s="16"/>
       <c r="Q5" s="16"/>
@@ -5363,45 +4474,19 @@
     </row>
     <row r="6" spans="1:19" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
-      <c r="B6" s="13">
-        <v>2</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="13">
-        <v>2</v>
-      </c>
-      <c r="E6" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="G6" s="46">
-        <v>50500</v>
-      </c>
-      <c r="H6" s="55">
-        <v>101000</v>
-      </c>
-      <c r="I6" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="J6" s="46">
-        <v>52000</v>
-      </c>
-      <c r="K6" s="65">
-        <v>104000</v>
-      </c>
-      <c r="L6" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="M6" s="46">
-        <v>51031</v>
-      </c>
-      <c r="N6" s="55">
-        <v>102062</v>
-      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="55"/>
       <c r="O6" s="16"/>
       <c r="P6" s="16"/>
       <c r="Q6" s="16"/>
@@ -5410,45 +4495,19 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
-      <c r="B7" s="13">
-        <v>3</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="13">
-        <v>2</v>
-      </c>
-      <c r="E7" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="61" t="s">
-        <v>96</v>
-      </c>
-      <c r="G7" s="46">
-        <v>1150</v>
-      </c>
-      <c r="H7" s="55">
-        <v>2300</v>
-      </c>
-      <c r="I7" s="61" t="s">
-        <v>84</v>
-      </c>
-      <c r="J7" s="46">
-        <v>1100</v>
-      </c>
-      <c r="K7" s="65">
-        <v>2200</v>
-      </c>
-      <c r="L7" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="M7" s="46">
-        <v>1328</v>
-      </c>
-      <c r="N7" s="55">
-        <v>2656</v>
-      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="55"/>
       <c r="O7" s="16"/>
       <c r="P7" s="16"/>
       <c r="Q7" s="16"/>
@@ -5457,45 +4516,19 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
-      <c r="B8" s="13">
-        <v>4</v>
-      </c>
-      <c r="C8" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="13">
-        <v>2</v>
-      </c>
-      <c r="E8" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="61" t="s">
-        <v>96</v>
-      </c>
-      <c r="G8" s="46">
-        <v>7700</v>
-      </c>
-      <c r="H8" s="55">
-        <v>15400</v>
-      </c>
-      <c r="I8" s="61" t="s">
-        <v>86</v>
-      </c>
-      <c r="J8" s="46">
-        <v>9500</v>
-      </c>
-      <c r="K8" s="65">
-        <v>19000</v>
-      </c>
-      <c r="L8" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="M8" s="46">
-        <v>12124</v>
-      </c>
-      <c r="N8" s="55">
-        <v>24248</v>
-      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="55"/>
       <c r="O8" s="16"/>
       <c r="P8" s="16"/>
       <c r="Q8" s="16"/>
@@ -5504,45 +4537,19 @@
     </row>
     <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
-      <c r="B9" s="13">
-        <v>5</v>
-      </c>
-      <c r="C9" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="13">
-        <v>32</v>
-      </c>
-      <c r="E9" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="61" t="s">
-        <v>96</v>
-      </c>
-      <c r="G9" s="46">
-        <v>215</v>
-      </c>
-      <c r="H9" s="55">
-        <v>6880</v>
-      </c>
-      <c r="I9" s="61" t="s">
-        <v>86</v>
-      </c>
-      <c r="J9" s="46">
-        <v>285</v>
-      </c>
-      <c r="K9" s="65">
-        <v>9120</v>
-      </c>
-      <c r="L9" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="M9" s="46">
-        <v>289</v>
-      </c>
-      <c r="N9" s="55">
-        <v>9248</v>
-      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="55"/>
       <c r="O9" s="16"/>
       <c r="P9" s="16"/>
       <c r="Q9" s="16"/>
@@ -5551,45 +4558,19 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
-      <c r="B10" s="13">
-        <v>6</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="13">
-        <v>200</v>
-      </c>
-      <c r="E10" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="G10" s="46">
-        <v>50</v>
-      </c>
-      <c r="H10" s="55">
-        <v>10000</v>
-      </c>
-      <c r="I10" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="J10" s="46">
-        <v>70</v>
-      </c>
-      <c r="K10" s="65">
-        <v>14000</v>
-      </c>
-      <c r="L10" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="M10" s="46">
-        <v>53</v>
-      </c>
-      <c r="N10" s="55">
-        <v>10600</v>
-      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="55"/>
       <c r="O10" s="16"/>
       <c r="P10" s="16"/>
       <c r="Q10" s="16"/>
@@ -5598,45 +4579,19 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
-      <c r="B11" s="13">
-        <v>7</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="13">
-        <v>2</v>
-      </c>
-      <c r="E11" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="G11" s="46">
-        <v>700</v>
-      </c>
-      <c r="H11" s="55">
-        <v>1400</v>
-      </c>
-      <c r="I11" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="J11" s="46">
-        <v>1500</v>
-      </c>
-      <c r="K11" s="65">
-        <v>3000</v>
-      </c>
-      <c r="L11" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="M11" s="46">
-        <v>1386</v>
-      </c>
-      <c r="N11" s="55">
-        <v>2772</v>
-      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="55"/>
       <c r="O11" s="16"/>
       <c r="P11" s="16"/>
       <c r="Q11" s="16"/>
@@ -5645,45 +4600,19 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
-      <c r="B12" s="18">
-        <v>8</v>
-      </c>
-      <c r="C12" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="18">
-        <v>2</v>
-      </c>
-      <c r="E12" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="62" t="s">
-        <v>87</v>
-      </c>
-      <c r="G12" s="47">
-        <v>5400</v>
-      </c>
-      <c r="H12" s="57">
-        <v>10800</v>
-      </c>
-      <c r="I12" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="J12" s="47">
-        <v>5500</v>
-      </c>
-      <c r="K12" s="65">
-        <v>11000</v>
-      </c>
-      <c r="L12" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="M12" s="47">
-        <v>4849</v>
-      </c>
-      <c r="N12" s="57">
-        <v>9698</v>
-      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="57"/>
       <c r="O12" s="16"/>
       <c r="P12" s="16"/>
       <c r="Q12" s="16"/>
@@ -5692,45 +4621,19 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
-      <c r="B13" s="18">
-        <v>9</v>
-      </c>
-      <c r="C13" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="18">
-        <v>2</v>
-      </c>
-      <c r="E13" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="62" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13" s="47">
-        <v>210</v>
-      </c>
-      <c r="H13" s="57">
-        <v>420</v>
-      </c>
-      <c r="I13" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="J13" s="47">
-        <v>400</v>
-      </c>
-      <c r="K13" s="65">
-        <v>800</v>
-      </c>
-      <c r="L13" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="M13" s="47">
-        <v>300</v>
-      </c>
-      <c r="N13" s="57">
-        <v>600</v>
-      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="57"/>
       <c r="O13" s="16"/>
       <c r="P13" s="16"/>
       <c r="Q13" s="16"/>
@@ -5739,45 +4642,19 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
-      <c r="B14" s="18">
-        <v>10</v>
-      </c>
-      <c r="C14" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" s="18">
-        <v>10</v>
-      </c>
-      <c r="E14" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="F14" s="62" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14" s="47">
-        <v>15500</v>
-      </c>
-      <c r="H14" s="57">
-        <v>155000</v>
-      </c>
-      <c r="I14" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="J14" s="47">
-        <v>17500</v>
-      </c>
-      <c r="K14" s="65">
-        <v>175000</v>
-      </c>
-      <c r="L14" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="M14" s="47">
-        <v>17703</v>
-      </c>
-      <c r="N14" s="57">
-        <v>177030</v>
-      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="57"/>
       <c r="O14" s="16"/>
       <c r="P14" s="16"/>
       <c r="Q14" s="16"/>
@@ -5786,45 +4663,19 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
-      <c r="B15" s="18">
-        <v>11</v>
-      </c>
-      <c r="C15" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="18">
-        <v>32</v>
-      </c>
-      <c r="E15" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="62" t="s">
-        <v>96</v>
-      </c>
-      <c r="G15" s="47">
-        <v>400</v>
-      </c>
-      <c r="H15" s="57">
-        <v>12800</v>
-      </c>
-      <c r="I15" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="J15" s="47">
-        <v>500</v>
-      </c>
-      <c r="K15" s="65">
-        <v>16000</v>
-      </c>
-      <c r="L15" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="M15" s="47">
-        <v>558</v>
-      </c>
-      <c r="N15" s="57">
-        <v>17856</v>
-      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="57"/>
       <c r="O15" s="16"/>
       <c r="P15" s="16"/>
       <c r="Q15" s="16"/>
@@ -5833,45 +4684,19 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
-      <c r="B16" s="18">
-        <v>12</v>
-      </c>
-      <c r="C16" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="18">
-        <v>32</v>
-      </c>
-      <c r="E16" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="62" t="s">
-        <v>96</v>
-      </c>
-      <c r="G16" s="47">
-        <v>260</v>
-      </c>
-      <c r="H16" s="57">
-        <v>8320</v>
-      </c>
-      <c r="I16" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="J16" s="47">
-        <v>350</v>
-      </c>
-      <c r="K16" s="65">
-        <v>11200</v>
-      </c>
-      <c r="L16" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="M16" s="47">
-        <v>462</v>
-      </c>
-      <c r="N16" s="57">
-        <v>14784</v>
-      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="57"/>
       <c r="O16" s="16"/>
       <c r="P16" s="16"/>
       <c r="Q16" s="16"/>
@@ -5881,7 +4706,7 @@
     <row r="17" spans="1:19" s="48" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="20"/>
       <c r="C17" s="20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="51"/>
@@ -5889,19 +4714,19 @@
       <c r="G17" s="59"/>
       <c r="H17" s="64">
         <f>SUM(H5:H16)</f>
-        <v>336320</v>
+        <v>0</v>
       </c>
       <c r="I17" s="63"/>
       <c r="J17" s="59"/>
       <c r="K17" s="64">
         <f t="shared" ref="K17" si="0">SUM(K5:K16)</f>
-        <v>381820</v>
+        <v>0</v>
       </c>
       <c r="L17" s="58"/>
       <c r="M17" s="59"/>
       <c r="N17" s="60">
         <f>SUM(N5:N16)</f>
-        <v>387018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
